--- a/po_analysis_by_asin/B083HZ3Y7L_po_data.xlsx
+++ b/po_analysis_by_asin/B083HZ3Y7L_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -645,7 +646,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -703,6 +704,453 @@
       </c>
       <c r="B8" t="n">
         <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44934.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>127</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-8.902605420146568</v>
+      </c>
+      <c r="D2" t="n">
+        <v>256.8313745878708</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44955.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>120</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-22.07776844778072</v>
+      </c>
+      <c r="D3" t="n">
+        <v>251.6170328771354</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44969.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>116</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-16.72188997173397</v>
+      </c>
+      <c r="D4" t="n">
+        <v>251.2273295891223</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44990.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>109</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-24.64982909330645</v>
+      </c>
+      <c r="D5" t="n">
+        <v>237.9964052993855</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>107</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-30.18185836465519</v>
+      </c>
+      <c r="D6" t="n">
+        <v>235.6480024132763</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>102</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-29.1335198083676</v>
+      </c>
+      <c r="D7" t="n">
+        <v>244.4308499667835</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45018.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-35.36726837243619</v>
+      </c>
+      <c r="D8" t="n">
+        <v>236.6250875138792</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45025.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>98</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-25.2680619006217</v>
+      </c>
+      <c r="D9" t="n">
+        <v>235.7070225684175</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>95</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-38.81645266744457</v>
+      </c>
+      <c r="D10" t="n">
+        <v>227.3263439135131</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45039.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>93</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-46.6707384009835</v>
+      </c>
+      <c r="D11" t="n">
+        <v>223.9582649387747</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45046.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>91</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-34.22111542344957</v>
+      </c>
+      <c r="D12" t="n">
+        <v>217.3151777900927</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45053.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>89</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-39.5060730938435</v>
+      </c>
+      <c r="D13" t="n">
+        <v>215.7219022334855</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>82</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-54.27207212895216</v>
+      </c>
+      <c r="D14" t="n">
+        <v>209.5393923527178</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>80</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-53.84174322506442</v>
+      </c>
+      <c r="D15" t="n">
+        <v>210.9741593772221</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>75</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-56.75567324508828</v>
+      </c>
+      <c r="D16" t="n">
+        <v>205.2473565139905</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>73</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-62.05077984564738</v>
+      </c>
+      <c r="D17" t="n">
+        <v>204.5550789737555</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>71</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-52.56495535699972</v>
+      </c>
+      <c r="D18" t="n">
+        <v>198.6883122194039</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>68</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-69.70979955949528</v>
+      </c>
+      <c r="D19" t="n">
+        <v>192.3961033176145</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45123.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>66</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-65.99393550383954</v>
+      </c>
+      <c r="D20" t="n">
+        <v>204.8613394432608</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45130.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>64</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-72.3199129503754</v>
+      </c>
+      <c r="D21" t="n">
+        <v>195.5783892310787</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>62</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-70.44422296973053</v>
+      </c>
+      <c r="D22" t="n">
+        <v>191.2928743628627</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45144.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>59</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-74.57857450277049</v>
+      </c>
+      <c r="D23" t="n">
+        <v>191.9589042131466</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45151.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>57</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-73.72119256965323</v>
+      </c>
+      <c r="D24" t="n">
+        <v>188.986607242907</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>55</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-73.7412261785429</v>
+      </c>
+      <c r="D25" t="n">
+        <v>189.9169293600306</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-81.66152946979408</v>
+      </c>
+      <c r="D26" t="n">
+        <v>180.8539388696355</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>50</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-84.43410448755832</v>
+      </c>
+      <c r="D27" t="n">
+        <v>167.2820714405042</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>48</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-87.98817554423913</v>
+      </c>
+      <c r="D28" t="n">
+        <v>185.6988720227306</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>46</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-92.76796452735709</v>
+      </c>
+      <c r="D29" t="n">
+        <v>180.4970192618647</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>44</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-96.02216368322134</v>
+      </c>
+      <c r="D30" t="n">
+        <v>171.4504372642787</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B083HZ3Y7L_po_data.xlsx
+++ b/po_analysis_by_asin/B083HZ3Y7L_po_data.xlsx
@@ -717,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,16 +736,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -754,12 +744,6 @@
       <c r="B2" t="n">
         <v>127</v>
       </c>
-      <c r="C2" t="n">
-        <v>-8.902605420146568</v>
-      </c>
-      <c r="D2" t="n">
-        <v>256.8313745878708</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -768,12 +752,6 @@
       <c r="B3" t="n">
         <v>120</v>
       </c>
-      <c r="C3" t="n">
-        <v>-22.07776844778072</v>
-      </c>
-      <c r="D3" t="n">
-        <v>251.6170328771354</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -782,12 +760,6 @@
       <c r="B4" t="n">
         <v>116</v>
       </c>
-      <c r="C4" t="n">
-        <v>-16.72188997173397</v>
-      </c>
-      <c r="D4" t="n">
-        <v>251.2273295891223</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -796,12 +768,6 @@
       <c r="B5" t="n">
         <v>109</v>
       </c>
-      <c r="C5" t="n">
-        <v>-24.64982909330645</v>
-      </c>
-      <c r="D5" t="n">
-        <v>237.9964052993855</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -810,12 +776,6 @@
       <c r="B6" t="n">
         <v>107</v>
       </c>
-      <c r="C6" t="n">
-        <v>-30.18185836465519</v>
-      </c>
-      <c r="D6" t="n">
-        <v>235.6480024132763</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -824,12 +784,6 @@
       <c r="B7" t="n">
         <v>102</v>
       </c>
-      <c r="C7" t="n">
-        <v>-29.1335198083676</v>
-      </c>
-      <c r="D7" t="n">
-        <v>244.4308499667835</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -838,12 +792,6 @@
       <c r="B8" t="n">
         <v>100</v>
       </c>
-      <c r="C8" t="n">
-        <v>-35.36726837243619</v>
-      </c>
-      <c r="D8" t="n">
-        <v>236.6250875138792</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -852,12 +800,6 @@
       <c r="B9" t="n">
         <v>98</v>
       </c>
-      <c r="C9" t="n">
-        <v>-25.2680619006217</v>
-      </c>
-      <c r="D9" t="n">
-        <v>235.7070225684175</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -866,12 +808,6 @@
       <c r="B10" t="n">
         <v>95</v>
       </c>
-      <c r="C10" t="n">
-        <v>-38.81645266744457</v>
-      </c>
-      <c r="D10" t="n">
-        <v>227.3263439135131</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -880,12 +816,6 @@
       <c r="B11" t="n">
         <v>93</v>
       </c>
-      <c r="C11" t="n">
-        <v>-46.6707384009835</v>
-      </c>
-      <c r="D11" t="n">
-        <v>223.9582649387747</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -894,12 +824,6 @@
       <c r="B12" t="n">
         <v>91</v>
       </c>
-      <c r="C12" t="n">
-        <v>-34.22111542344957</v>
-      </c>
-      <c r="D12" t="n">
-        <v>217.3151777900927</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -908,12 +832,6 @@
       <c r="B13" t="n">
         <v>89</v>
       </c>
-      <c r="C13" t="n">
-        <v>-39.5060730938435</v>
-      </c>
-      <c r="D13" t="n">
-        <v>215.7219022334855</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -922,12 +840,6 @@
       <c r="B14" t="n">
         <v>82</v>
       </c>
-      <c r="C14" t="n">
-        <v>-54.27207212895216</v>
-      </c>
-      <c r="D14" t="n">
-        <v>209.5393923527178</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -936,12 +848,6 @@
       <c r="B15" t="n">
         <v>80</v>
       </c>
-      <c r="C15" t="n">
-        <v>-53.84174322506442</v>
-      </c>
-      <c r="D15" t="n">
-        <v>210.9741593772221</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -950,12 +856,6 @@
       <c r="B16" t="n">
         <v>75</v>
       </c>
-      <c r="C16" t="n">
-        <v>-56.75567324508828</v>
-      </c>
-      <c r="D16" t="n">
-        <v>205.2473565139905</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -964,12 +864,6 @@
       <c r="B17" t="n">
         <v>73</v>
       </c>
-      <c r="C17" t="n">
-        <v>-62.05077984564738</v>
-      </c>
-      <c r="D17" t="n">
-        <v>204.5550789737555</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -978,12 +872,6 @@
       <c r="B18" t="n">
         <v>71</v>
       </c>
-      <c r="C18" t="n">
-        <v>-52.56495535699972</v>
-      </c>
-      <c r="D18" t="n">
-        <v>198.6883122194039</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -992,12 +880,6 @@
       <c r="B19" t="n">
         <v>68</v>
       </c>
-      <c r="C19" t="n">
-        <v>-69.70979955949528</v>
-      </c>
-      <c r="D19" t="n">
-        <v>192.3961033176145</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1006,12 +888,6 @@
       <c r="B20" t="n">
         <v>66</v>
       </c>
-      <c r="C20" t="n">
-        <v>-65.99393550383954</v>
-      </c>
-      <c r="D20" t="n">
-        <v>204.8613394432608</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1020,12 +896,6 @@
       <c r="B21" t="n">
         <v>64</v>
       </c>
-      <c r="C21" t="n">
-        <v>-72.3199129503754</v>
-      </c>
-      <c r="D21" t="n">
-        <v>195.5783892310787</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1034,12 +904,6 @@
       <c r="B22" t="n">
         <v>62</v>
       </c>
-      <c r="C22" t="n">
-        <v>-70.44422296973053</v>
-      </c>
-      <c r="D22" t="n">
-        <v>191.2928743628627</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1048,12 +912,6 @@
       <c r="B23" t="n">
         <v>59</v>
       </c>
-      <c r="C23" t="n">
-        <v>-74.57857450277049</v>
-      </c>
-      <c r="D23" t="n">
-        <v>191.9589042131466</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1062,12 +920,6 @@
       <c r="B24" t="n">
         <v>57</v>
       </c>
-      <c r="C24" t="n">
-        <v>-73.72119256965323</v>
-      </c>
-      <c r="D24" t="n">
-        <v>188.986607242907</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1076,12 +928,6 @@
       <c r="B25" t="n">
         <v>55</v>
       </c>
-      <c r="C25" t="n">
-        <v>-73.7412261785429</v>
-      </c>
-      <c r="D25" t="n">
-        <v>189.9169293600306</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1090,12 +936,6 @@
       <c r="B26" t="n">
         <v>53</v>
       </c>
-      <c r="C26" t="n">
-        <v>-81.66152946979408</v>
-      </c>
-      <c r="D26" t="n">
-        <v>180.8539388696355</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1104,12 +944,6 @@
       <c r="B27" t="n">
         <v>50</v>
       </c>
-      <c r="C27" t="n">
-        <v>-84.43410448755832</v>
-      </c>
-      <c r="D27" t="n">
-        <v>167.2820714405042</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1118,12 +952,6 @@
       <c r="B28" t="n">
         <v>48</v>
       </c>
-      <c r="C28" t="n">
-        <v>-87.98817554423913</v>
-      </c>
-      <c r="D28" t="n">
-        <v>185.6988720227306</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1132,12 +960,6 @@
       <c r="B29" t="n">
         <v>46</v>
       </c>
-      <c r="C29" t="n">
-        <v>-92.76796452735709</v>
-      </c>
-      <c r="D29" t="n">
-        <v>180.4970192618647</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1145,12 +967,6 @@
       </c>
       <c r="B30" t="n">
         <v>44</v>
-      </c>
-      <c r="C30" t="n">
-        <v>-96.02216368322134</v>
-      </c>
-      <c r="D30" t="n">
-        <v>171.4504372642787</v>
       </c>
     </row>
   </sheetData>
